--- a/assets/files/partnerTemplate.xlsx
+++ b/assets/files/partnerTemplate.xlsx
@@ -27,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Partner Name</t>
-  </si>
-  <si>
-    <t>Address Line 1</t>
-  </si>
-  <si>
-    <t>Address Line 2</t>
   </si>
   <si>
     <t>City</t>
@@ -51,6 +45,9 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -377,10 +374,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M246"/>
+  <dimension ref="A1:L246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -388,36 +385,33 @@
     <col min="1" max="1" width="58.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
     </row>
     <row r="47" ht="13" x14ac:dyDescent="0.15"/>
     <row r="48" ht="13" x14ac:dyDescent="0.15"/>
@@ -453,10 +447,10 @@
     <row r="78" ht="13" x14ac:dyDescent="0.15"/>
     <row r="79" ht="13" x14ac:dyDescent="0.15"/>
     <row r="80" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="81" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="82" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="83" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -464,20 +458,19 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
     <row r="97" ht="13" x14ac:dyDescent="0.15"/>
     <row r="98" ht="13" x14ac:dyDescent="0.15"/>
     <row r="99" ht="13" x14ac:dyDescent="0.15"/>
